--- a/WebRoot/static/template/investment/投資預算維度表.xlsx
+++ b/WebRoot/static/template/investment/投資預算維度表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggao\Desktop\Fit BI\重要\investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\FIT BI\代码\FIT\WebRoot\static\template\investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SBU_法人" sheetId="1" r:id="rId3"/>
     <sheet name="提出部門&amp;使用部門" sheetId="2" r:id="rId4"/>
     <sheet name="Segment" sheetId="9" r:id="rId5"/>
-    <sheet name="Main business" sheetId="6" r:id="rId6"/>
+    <sheet name="3+3" sheetId="6" r:id="rId6"/>
     <sheet name="產業" sheetId="13" r:id="rId7"/>
     <sheet name="投資類型" sheetId="17" r:id="rId8"/>
   </sheets>
